--- a/30_KnowHow/HTTP/Http详解.xlsx
+++ b/30_KnowHow/HTTP/Http详解.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>发展历程</t>
   </si>
@@ -206,13 +206,208 @@
   </si>
   <si>
     <t>第一部分叫请求行， 第二部分叫http header, 第三部分是body. header和body之间有个空行， 结构如下图</t>
+  </si>
+  <si>
+    <t>request line</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>request Method</t>
+  </si>
+  <si>
+    <t>少见，请求已经接收，正在处理</t>
+  </si>
+  <si>
+    <t>2xx</t>
+  </si>
+  <si>
+    <t>1xx</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>3xx</t>
+  </si>
+  <si>
+    <t>重定向、缓存状态（304）</t>
+  </si>
+  <si>
+    <t>4xx</t>
+  </si>
+  <si>
+    <t>5xx</t>
+  </si>
+  <si>
+    <t>服务端error</t>
+  </si>
+  <si>
+    <t>If-Modified-Since</t>
+  </si>
+  <si>
+    <t>requestHeader</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>用来判断是否从缓存读取</t>
+  </si>
+  <si>
+    <t>如果不一致，刚返回200,重新响应，浏览器进行缓存</t>
+  </si>
+  <si>
+    <t>If-None-Match</t>
+  </si>
+  <si>
+    <t>如果客户端时间的服务端文件修改时间一致，刚返回304，浏览器从缓存读取资源。</t>
+  </si>
+  <si>
+    <t>与if-modified-since类似</t>
+  </si>
+  <si>
+    <t>no-cache</t>
+  </si>
+  <si>
+    <t>Cache-Control</t>
+  </si>
+  <si>
+    <t>Pragma 基于HTTP1.0</t>
+  </si>
+  <si>
+    <t>cache-control:public</t>
+  </si>
+  <si>
+    <t>可以被任意缓存</t>
+  </si>
+  <si>
+    <t>cache-control:private</t>
+  </si>
+  <si>
+    <t>只能缓存到私有缓存中</t>
+  </si>
+  <si>
+    <t>cache-control:no-cache</t>
+  </si>
+  <si>
+    <t>内容不被缓存</t>
+  </si>
+  <si>
+    <t>cache相关</t>
+  </si>
+  <si>
+    <t>Client相关</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>text/html,</t>
+  </si>
+  <si>
+    <t>发生错误，400 BadRequest、404 notfound  403 Forbiden 406 accept类型错误</t>
+  </si>
+  <si>
+    <t>浏览器可接受的文档类型</t>
+  </si>
+  <si>
+    <t>Accept-Encoding</t>
+  </si>
+  <si>
+    <t>浏览器可接受的压缩方法gzip，deflate</t>
+  </si>
+  <si>
+    <t>Accept-Language</t>
+  </si>
+  <si>
+    <t>浏览器使用的语言环境</t>
+  </si>
+  <si>
+    <t>User-Agent</t>
+  </si>
+  <si>
+    <t>浏览器类型</t>
+  </si>
+  <si>
+    <t>Accept-Charset</t>
+  </si>
+  <si>
+    <t>浏览器可接受的字符集</t>
+  </si>
+  <si>
+    <t>Cookie相关</t>
+  </si>
+  <si>
+    <t>将cookie的值发送给服务端</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Content-Length</t>
+  </si>
+  <si>
+    <t>发送给HTTP服务器的数据长度</t>
+  </si>
+  <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>Referer</t>
+  </si>
+  <si>
+    <t>告诉浏览我是从哪个页面迁移过来的</t>
+  </si>
+  <si>
+    <t>Referer:http://translate.google.cn/?hl=zh-cn&amp;tab=wT</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep-alive </t>
+  </si>
+  <si>
+    <t>当一个网页打开完成后，客户端和服务器之间用于传输HTTP数据的TCP连接不会关闭，</t>
+  </si>
+  <si>
+    <t>如果客户端再次访问这个服务器上的网页，会继续使用这一条已经建立的连接</t>
+  </si>
+  <si>
+    <t>close </t>
+  </si>
+  <si>
+    <t>request完成后，客户端与服务端传输HTTP数据的TCP连接就会关闭，</t>
+  </si>
+  <si>
+    <t>当客户端再次发送Request请求时，再次重新建立TCP连接</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +435,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF232323"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF232323"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,12 +484,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,11 +1649,308 @@
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
     </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="5"/>
+      <c r="D116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D132" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D135" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>91</v>
+      </c>
+      <c r="H136" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>95</v>
+      </c>
+      <c r="H138" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>100</v>
+      </c>
+      <c r="G143" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>103</v>
+      </c>
+      <c r="G144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>105</v>
+      </c>
+      <c r="G145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>107</v>
+      </c>
+      <c r="G146" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D147" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C160" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D162" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C164" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D165" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>123</v>
+      </c>
+      <c r="G166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E169" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G64" r:id="rId1" location="stuff"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>